--- a/biology/Zoologie/Émeu_noir/Émeu_noir.xlsx
+++ b/biology/Zoologie/Émeu_noir/Émeu_noir.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89meu_noir</t>
+          <t>Émeu_noir</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dromaius novaehollandiae minor
-L’Émeu noir (Dromaius novaehollandiae minor, anciennement D. n. ater) est une sous-espèce de l'Émeu d'Australie, éteinte depuis 1822[1], qui vivait sur King Island, située dans le détroit de Bass (entre l'Australie continentale et la Tasmanie).
+L’Émeu noir (Dromaius novaehollandiae minor, anciennement D. n. ater) est une sous-espèce de l'Émeu d'Australie, éteinte depuis 1822, qui vivait sur King Island, située dans le détroit de Bass (entre l'Australie continentale et la Tasmanie).
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89meu_noir</t>
+          <t>Émeu_noir</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans sa classification version 4.1 (janvier 2014), le Congrès ornithologique international renomme cette sous-espèce en D. n. minor, car le nom D. n. ater Vieillot, 1817 est un nomen novum pour le taxon Dromaius novaehollandiae, et son utilisation pour désigner cette sous-espèce est donc incorrecte[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans sa classification version 4.1 (janvier 2014), le Congrès ornithologique international renomme cette sous-espèce en D. n. minor, car le nom D. n. ater Vieillot, 1817 est un nomen novum pour le taxon Dromaius novaehollandiae, et son utilisation pour désigner cette sous-espèce est donc incorrecte.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89meu_noir</t>
+          <t>Émeu_noir</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Conservation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On ne dispose que d'une seule peau de cette espèce, récoltée par l'expédition française de 1802 conduite par Nicolas Baudin (1754-1803) ; elle a été utilisée pour faire un animal naturalisé qui est aujourd'hui conservé au Muséum national d'histoire naturelle de Paris. Des os ont également été découverts. On attribue sa disparition à sa chasse pour sa chair.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89meu_noir</t>
+          <t>Émeu_noir</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il était, avec une hauteur d'un mètre, le plus petit des émeus connus. Il avait un plumage très foncé.
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%89meu_noir</t>
+          <t>Émeu_noir</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'émeu appartenant au Muséum d'histoire Naturelle et seul exemplaire existant appartenu à Marie Josèphe Rose Tascher de La Pagerie, dite Joséphine de Beauharnais passionnée de botanique.
 </t>
